--- a/my_new_excel.xlsx
+++ b/my_new_excel.xlsx
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
